--- a/zadania_dziel_i_rzadz_w67227.xlsx
+++ b/zadania_dziel_i_rzadz_w67227.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w67227\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jobiw\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EFCF67-A088-45F8-96F1-2018EA73913A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F877EA4-4A73-48C4-87EA-B443BF1F441B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zadanie_1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -379,7 +390,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3011,8 +3022,8 @@
   <dimension ref="G1:AG42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3299,7 +3310,7 @@
         <v>65</v>
       </c>
       <c r="S6" s="21">
-        <f t="shared" ref="Q6:S7" si="16">S5</f>
+        <f t="shared" ref="S6" si="16">S5</f>
         <v>1</v>
       </c>
       <c r="T6" s="1">
@@ -4066,17 +4077,42 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="7:25" x14ac:dyDescent="0.25">
-      <c r="G28" s="6">
-        <v>5</v>
-      </c>
-      <c r="H28" s="6">
-        <v>4</v>
-      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="O28"/>
+      <c r="O28" s="23">
+        <v>1</v>
+      </c>
+      <c r="P28" s="23">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="23">
+        <v>35</v>
+      </c>
+      <c r="R28" s="23">
+        <v>42</v>
+      </c>
+      <c r="S28" s="23">
+        <v>55</v>
+      </c>
+      <c r="T28" s="23">
+        <v>59</v>
+      </c>
+      <c r="U28" s="23">
+        <v>65</v>
+      </c>
+      <c r="V28" s="23">
+        <v>68</v>
+      </c>
+      <c r="W28" s="23">
+        <v>70</v>
+      </c>
+      <c r="X28" s="23">
+        <v>79</v>
+      </c>
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="7:25" x14ac:dyDescent="0.25">
@@ -4183,7 +4219,7 @@
   <dimension ref="A2:AE29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4376,9 +4412,15 @@
       <c r="H8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="R8" s="1"/>
@@ -4394,19 +4436,45 @@
       <c r="H9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="10"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2">
+        <v>3</v>
+      </c>
+      <c r="O9" s="2">
+        <v>42</v>
+      </c>
+      <c r="P9" s="10">
+        <v>68</v>
+      </c>
+      <c r="R9" s="2">
+        <v>35</v>
+      </c>
+      <c r="S9" s="2">
+        <v>65</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+      <c r="V9" s="2">
+        <v>25</v>
+      </c>
+      <c r="W9" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>59</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>55</v>
+      </c>
       <c r="AE9" s="1">
         <v>3</v>
       </c>
@@ -4418,17 +4486,29 @@
       <c r="H10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="I11" s="2">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="I12" s="2"/>
@@ -4449,19 +4529,43 @@
       <c r="H13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
       <c r="K13" s="2"/>
-      <c r="M13" s="8"/>
-      <c r="O13" s="9"/>
-      <c r="Q13" s="8"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="V13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
+      <c r="M13" s="8">
+        <v>42</v>
+      </c>
+      <c r="O13" s="9">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>35</v>
+      </c>
+      <c r="S13" s="2">
+        <v>65</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1</v>
+      </c>
+      <c r="V13" s="8">
+        <v>25</v>
+      </c>
+      <c r="X13" s="8">
+        <v>79</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>59</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>55</v>
+      </c>
       <c r="AE13" s="1">
         <v>4</v>
       </c>
@@ -4470,8 +4574,12 @@
       <c r="H14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -4487,13 +4595,25 @@
       <c r="H16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
       <c r="K16" s="2"/>
-      <c r="R16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AC16" s="8"/>
+      <c r="R16" s="8">
+        <v>65</v>
+      </c>
+      <c r="T16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="8">
+        <v>70</v>
+      </c>
+      <c r="AC16" s="8">
+        <v>55</v>
+      </c>
       <c r="AE16" s="1">
         <v>5</v>
       </c>
@@ -4502,9 +4622,15 @@
       <c r="H17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="I17" s="2">
+        <v>3</v>
+      </c>
+      <c r="J17" s="2">
+        <v>4</v>
+      </c>
+      <c r="K17" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I18" s="2"/>
@@ -4515,16 +4641,24 @@
       <c r="H19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="I19" s="2">
+        <v>3</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3</v>
+      </c>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="I20" s="2">
+        <v>4</v>
+      </c>
+      <c r="J20" s="2">
+        <v>4</v>
+      </c>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="8:11" x14ac:dyDescent="0.25">
@@ -4536,16 +4670,24 @@
       <c r="H22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="I22" s="2">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5</v>
+      </c>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="I23" s="2">
+        <v>6</v>
+      </c>
+      <c r="J23" s="2">
+        <v>6</v>
+      </c>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="8:11" x14ac:dyDescent="0.25">
@@ -4557,17 +4699,27 @@
       <c r="H25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="I25" s="2">
+        <v>7</v>
+      </c>
+      <c r="J25" s="2">
+        <v>7</v>
+      </c>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="I26" s="2">
+        <v>8</v>
+      </c>
+      <c r="J26" s="2">
+        <v>9</v>
+      </c>
+      <c r="K26" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I27" s="2"/>
@@ -4578,15 +4730,21 @@
       <c r="H28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="I28" s="2">
+        <v>8</v>
+      </c>
+      <c r="J28" s="2">
+        <v>8</v>
+      </c>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="I29" s="2">
+        <v>9</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
@@ -4605,7 +4763,7 @@
   <dimension ref="H1:T10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
